--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_drc.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_drc.xlsx
@@ -1159,91 +1159,91 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>0.744695396027027</v>
+        <v>0.767452292653802</v>
       </c>
       <c r="C2">
-        <v>0.710431479028216</v>
+        <v>0.732595394850975</v>
       </c>
       <c r="D2">
-        <v>0.68140055427308</v>
+        <v>0.707044130096105</v>
       </c>
       <c r="E2">
-        <v>0.651521186802287</v>
+        <v>0.679732908846102</v>
       </c>
       <c r="F2">
-        <v>0.621398572210577</v>
+        <v>0.652384477720919</v>
       </c>
       <c r="G2">
-        <v>0.592016639675289</v>
+        <v>0.628457261122143</v>
       </c>
       <c r="H2">
-        <v>0.567273953975465</v>
+        <v>0.611710140077558</v>
       </c>
       <c r="I2">
-        <v>0.543889475506792</v>
+        <v>0.586070796673424</v>
       </c>
       <c r="J2">
-        <v>0.522943083008434</v>
+        <v>0.565001287846915</v>
       </c>
       <c r="K2">
-        <v>0.507886978553121</v>
+        <v>0.544923994625742</v>
       </c>
       <c r="L2">
-        <v>0.49358241728736</v>
+        <v>0.527530781738697</v>
       </c>
       <c r="M2">
-        <v>0.478817166857492</v>
+        <v>0.510630810682997</v>
       </c>
       <c r="N2">
-        <v>0.46637687294672</v>
+        <v>0.497497095248945</v>
       </c>
       <c r="O2">
-        <v>0.453569324034103</v>
+        <v>0.484594145442685</v>
       </c>
       <c r="P2">
-        <v>0.440495180736255</v>
+        <v>0.471643542117016</v>
       </c>
       <c r="Q2">
-        <v>0.427438788756019</v>
+        <v>0.458698100804707</v>
       </c>
       <c r="R2">
-        <v>0.414434278859587</v>
+        <v>0.449995968139568</v>
       </c>
       <c r="S2">
-        <v>0.401491961183091</v>
+        <v>0.441155375806045</v>
       </c>
       <c r="T2">
-        <v>0.388357111519849</v>
+        <v>0.431328378471348</v>
       </c>
       <c r="U2">
-        <v>0.375340619975095</v>
+        <v>0.420945279210376</v>
       </c>
       <c r="V2">
-        <v>0.362695616940169</v>
+        <v>0.410384004874589</v>
       </c>
       <c r="W2">
-        <v>0.350504333958321</v>
+        <v>0.399815551418661</v>
       </c>
       <c r="X2">
-        <v>0.338620632015722</v>
+        <v>0.389031854156528</v>
       </c>
       <c r="Y2">
-        <v>0.327159147431019</v>
+        <v>0.375512788800388</v>
       </c>
       <c r="Z2">
-        <v>0.316219789576262</v>
+        <v>0.374319131647358</v>
       </c>
       <c r="AA2">
-        <v>0.30626025752032</v>
+        <v>0.370392855684437</v>
       </c>
       <c r="AB2">
-        <v>0.296503867009828</v>
+        <v>0.36479984355322</v>
       </c>
       <c r="AC2">
-        <v>0.287145756780642</v>
+        <v>0.358040605298879</v>
       </c>
       <c r="AD2">
-        <v>0.278392956322226</v>
+        <v>0.347224667644261</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1251,91 +1251,91 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.110160332263949</v>
+        <v>0.125869031354256</v>
       </c>
       <c r="C3">
-        <v>0.127711498074818</v>
+        <v>0.145832520970761</v>
       </c>
       <c r="D3">
-        <v>0.14644973868904</v>
+        <v>0.166192313802518</v>
       </c>
       <c r="E3">
-        <v>0.166934662672893</v>
+        <v>0.0242954597624904</v>
       </c>
       <c r="F3">
-        <v>0.189320534383611</v>
+        <v>0.0245412581184573</v>
       </c>
       <c r="G3">
-        <v>0.0169574488583314</v>
+        <v>0.237889743285006</v>
       </c>
       <c r="H3">
-        <v>0.0218658671444661</v>
+        <v>0.252473492440399</v>
       </c>
       <c r="I3">
-        <v>0.0271880394714347</v>
+        <v>0.271233671347712</v>
       </c>
       <c r="J3">
-        <v>0.0287029540947694</v>
+        <v>0.279633471993064</v>
       </c>
       <c r="K3">
-        <v>0.0293614353352238</v>
+        <v>0.288648244772071</v>
       </c>
       <c r="L3">
-        <v>0.02267595872667</v>
+        <v>0.292563043478054</v>
       </c>
       <c r="M3">
-        <v>0.0232727565788891</v>
+        <v>0.0215821540305804</v>
       </c>
       <c r="N3">
-        <v>0.0248663407313587</v>
+        <v>0.291521975212162</v>
       </c>
       <c r="O3">
-        <v>0.0239956138273082</v>
+        <v>0.286157236550521</v>
       </c>
       <c r="P3">
-        <v>0.0230983855366517</v>
+        <v>0.282787986858987</v>
       </c>
       <c r="Q3">
-        <v>0.0221499745237675</v>
+        <v>0.279450350935739</v>
       </c>
       <c r="R3">
-        <v>0.0192072053836196</v>
+        <v>0.273770120838571</v>
       </c>
       <c r="S3">
-        <v>0.0222209644915121</v>
+        <v>0.268456735252506</v>
       </c>
       <c r="T3">
-        <v>0.0201858569031065</v>
+        <v>0.265934121043872</v>
       </c>
       <c r="U3">
-        <v>0.0160989036604966</v>
+        <v>0.264740636977342</v>
       </c>
       <c r="V3">
-        <v>0.0158119712593037</v>
+        <v>0.0253140993354608</v>
       </c>
       <c r="W3">
-        <v>0.0121279569869954</v>
+        <v>0.0242639922803417</v>
       </c>
       <c r="X3">
-        <v>0.00967257227079227</v>
+        <v>0.0328970672543008</v>
       </c>
       <c r="Y3">
-        <v>0.0110713601474128</v>
+        <v>0.0297667082728603</v>
       </c>
       <c r="Z3">
-        <v>0.012719891763425</v>
+        <v>0.0309494524045812</v>
       </c>
       <c r="AA3">
-        <v>0.00687733842783907</v>
+        <v>0.0293834929141982</v>
       </c>
       <c r="AB3">
-        <v>0.029206690433942</v>
+        <v>0.0233524760677465</v>
       </c>
       <c r="AC3">
-        <v>0.267632248316022</v>
+        <v>0.252740554645067</v>
       </c>
       <c r="AD3">
-        <v>0.270110565977218</v>
+        <v>0.255009063699822</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -1343,91 +1343,91 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>0.0947507097147973</v>
+        <v>0.108262019611144</v>
       </c>
       <c r="C4">
-        <v>0.104737580115986</v>
+        <v>0.119598826878869</v>
       </c>
       <c r="D4">
-        <v>0.11122870875137</v>
+        <v>0.126223212373953</v>
       </c>
       <c r="E4">
-        <v>0.11854682776564</v>
+        <v>0.133797055336395</v>
       </c>
       <c r="F4">
-        <v>0.126561843151595</v>
+        <v>0.141950129973883</v>
       </c>
       <c r="G4">
-        <v>0.135500390032744</v>
+        <v>0.150302111663069</v>
       </c>
       <c r="H4">
-        <v>0.141646546350062</v>
+        <v>0.154674786675184</v>
       </c>
       <c r="I4">
-        <v>0.147963783804689</v>
+        <v>0.161689707069861</v>
       </c>
       <c r="J4">
-        <v>0.152112326918247</v>
+        <v>0.165781386286472</v>
       </c>
       <c r="K4">
-        <v>0.154682554830249</v>
+        <v>0.169761363609519</v>
       </c>
       <c r="L4">
-        <v>0.155938795763719</v>
+        <v>0.171803664291265</v>
       </c>
       <c r="M4">
-        <v>0.157678591053998</v>
+        <v>0.174101213867238</v>
       </c>
       <c r="N4">
-        <v>0.156507065965477</v>
+        <v>0.172761425314497</v>
       </c>
       <c r="O4">
-        <v>0.155828033437151</v>
+        <v>0.171742378487166</v>
       </c>
       <c r="P4">
-        <v>0.155811015848713</v>
+        <v>0.1713530345434</v>
       </c>
       <c r="Q4">
-        <v>0.156100230972913</v>
+        <v>0.171284043181982</v>
       </c>
       <c r="R4">
-        <v>0.156682102298085</v>
+        <v>0.169915426152123</v>
       </c>
       <c r="S4">
-        <v>0.157582632641048</v>
+        <v>0.168872915696045</v>
       </c>
       <c r="T4">
-        <v>0.15940507015405</v>
+        <v>0.16900195640563</v>
       </c>
       <c r="U4">
-        <v>0.16167139849416</v>
+        <v>0.169745977101494</v>
       </c>
       <c r="V4">
-        <v>0.164114405132941</v>
+        <v>0.170790990265131</v>
       </c>
       <c r="W4">
-        <v>0.166626177123993</v>
+        <v>0.17200588734056</v>
       </c>
       <c r="X4">
-        <v>0.169513913117563</v>
+        <v>0.17374006277174</v>
       </c>
       <c r="Y4">
-        <v>0.172658264778395</v>
+        <v>0.177128350851651</v>
       </c>
       <c r="Z4">
-        <v>0.00395952642872621</v>
+        <v>0.174906135900735</v>
       </c>
       <c r="AA4">
-        <v>0.178654385256731</v>
+        <v>0.173943456077292</v>
       </c>
       <c r="AB4">
-        <v>0.181634510760391</v>
+        <v>0.173836295564596</v>
       </c>
       <c r="AC4">
-        <v>0.184775288116126</v>
+        <v>0.174493952563571</v>
       </c>
       <c r="AD4">
-        <v>0.187825755174749</v>
+        <v>0.177324681071027</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1435,91 +1435,91 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>0.209315444852869</v>
+        <v>0.103857117746293</v>
       </c>
       <c r="C5">
-        <v>0.211853568548293</v>
+        <v>0.110347326856104</v>
       </c>
       <c r="D5">
-        <v>0.205941000457464</v>
+        <v>0.104751806705494</v>
       </c>
       <c r="E5">
-        <v>0.175119483440913</v>
+        <v>0.0994173437229201</v>
       </c>
       <c r="F5">
-        <v>0.182837241590215</v>
+        <v>0.161364647201146</v>
       </c>
       <c r="G5">
-        <v>0.189261748599859</v>
+        <v>0.234115758836789</v>
       </c>
       <c r="H5">
-        <v>0.189166820964612</v>
+        <v>0.0353780125733109</v>
       </c>
       <c r="I5">
-        <v>0.215717711821098</v>
+        <v>0.0415287774574524</v>
       </c>
       <c r="J5">
-        <v>0.5399291725126</v>
+        <v>0.032485770098984</v>
       </c>
       <c r="K5">
-        <v>0.559835825822236</v>
+        <v>0.0339572826749858</v>
       </c>
       <c r="L5">
-        <v>0.578833158687446</v>
+        <v>0.0338425180882003</v>
       </c>
       <c r="M5">
-        <v>0.599369600601321</v>
+        <v>0.0377789513538741</v>
       </c>
       <c r="N5">
-        <v>0.618025281560596</v>
+        <v>0.0424210729677321</v>
       </c>
       <c r="O5">
-        <v>0.637768212341345</v>
+        <v>0.0417352726383584</v>
       </c>
       <c r="P5">
-        <v>0.658985103502153</v>
+        <v>0.0285392869650438</v>
       </c>
       <c r="Q5">
-        <v>0.716775430167176</v>
+        <v>0.169431894843545</v>
       </c>
       <c r="R5">
-        <v>0.709965199954439</v>
+        <v>0.183584113031261</v>
       </c>
       <c r="S5">
-        <v>0.695771627677513</v>
+        <v>0.184286514413608</v>
       </c>
       <c r="T5">
-        <v>0.684485540999409</v>
+        <v>0.183829790896091</v>
       </c>
       <c r="U5">
-        <v>0.673442396800015</v>
+        <v>0.184055047570139</v>
       </c>
       <c r="V5">
-        <v>0.656965640456246</v>
+        <v>0.184643151125161</v>
       </c>
       <c r="W5">
-        <v>0.642309490949872</v>
+        <v>0.0447343837016105</v>
       </c>
       <c r="X5">
-        <v>0.624257665438407</v>
+        <v>0.0494869872395776</v>
       </c>
       <c r="Y5">
-        <v>0.60018641481395</v>
+        <v>0.777077450583196</v>
       </c>
       <c r="Z5">
-        <v>0.747380445423586</v>
+        <v>0.778118780555096</v>
       </c>
       <c r="AA5">
-        <v>0.56555523468781</v>
+        <v>0.780648963536442</v>
       </c>
       <c r="AB5">
-        <v>0.514419124245682</v>
+        <v>0.786788473784689</v>
       </c>
       <c r="AC5">
-        <v>0.519682374436624</v>
+        <v>0.305078416459501</v>
       </c>
       <c r="AD5">
-        <v>0.465140794361105</v>
+        <v>0.20480446152169</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1527,91 +1527,91 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0.430226486831615</v>
+        <v>0.353988168711693</v>
       </c>
       <c r="C6">
-        <v>0.460302646739097</v>
+        <v>0.391778674705734</v>
       </c>
       <c r="D6">
-        <v>0.479619447897874</v>
+        <v>0.413167332881964</v>
       </c>
       <c r="E6">
-        <v>0.476600973879447</v>
+        <v>0.273509858821805</v>
       </c>
       <c r="F6">
-        <v>0.514719619125421</v>
+        <v>0.343856035293486</v>
       </c>
       <c r="G6">
-        <v>0.357719587490934</v>
+        <v>0.638307613784864</v>
       </c>
       <c r="H6">
-        <v>0.36867923445914</v>
+        <v>0.458526291688894</v>
       </c>
       <c r="I6">
-        <v>0.406869535097222</v>
+        <v>0.490452155875025</v>
       </c>
       <c r="J6">
-        <v>0.736744453525616</v>
+        <v>0.493900628378521</v>
       </c>
       <c r="K6">
-        <v>0.759879815987708</v>
+        <v>0.508366891056576</v>
       </c>
       <c r="L6">
-        <v>0.773447913177834</v>
+        <v>0.514209225857519</v>
       </c>
       <c r="M6">
-        <v>0.796320948234208</v>
+        <v>0.249462319251692</v>
       </c>
       <c r="N6">
-        <v>0.815398688257432</v>
+        <v>0.522704473494391</v>
       </c>
       <c r="O6">
-        <v>0.833591859605804</v>
+        <v>0.515634887676046</v>
       </c>
       <c r="P6">
-        <v>0.853894504887517</v>
+        <v>0.49868030836743</v>
       </c>
       <c r="Q6">
-        <v>0.911025635663857</v>
+        <v>0.636166288961266</v>
       </c>
       <c r="R6">
-        <v>0.901854507636143</v>
+        <v>0.643269660021956</v>
       </c>
       <c r="S6">
-        <v>0.891575224810073</v>
+        <v>0.637616165362158</v>
       </c>
       <c r="T6">
-        <v>0.880076468056565</v>
+        <v>0.634765868345593</v>
       </c>
       <c r="U6">
-        <v>0.867212698954671</v>
+        <v>0.634541661648975</v>
       </c>
       <c r="V6">
-        <v>0.852892016848491</v>
+        <v>0.396748240725753</v>
       </c>
       <c r="W6">
-        <v>0.837063625060861</v>
+        <v>0.257004263322512</v>
       </c>
       <c r="X6">
-        <v>0.819444150826762</v>
+        <v>0.272124117265619</v>
       </c>
       <c r="Y6">
-        <v>0.799916039739758</v>
+        <v>0.999972509707707</v>
       </c>
       <c r="Z6">
-        <v>0.780059863615737</v>
+        <v>0.999974368860412</v>
       </c>
       <c r="AA6">
-        <v>0.76708695837238</v>
+        <v>0.999975912527932</v>
       </c>
       <c r="AB6">
-        <v>0.741260325440015</v>
+        <v>0.999977245417031</v>
       </c>
       <c r="AC6">
-        <v>0.988089910868773</v>
+        <v>0.748312923668139</v>
       </c>
       <c r="AD6">
-        <v>0.939077115513105</v>
+        <v>0.65313820629251</v>
       </c>
     </row>
   </sheetData>
